--- a/Interaktif_Vaziyet/data/NCR.xlsx
+++ b/Interaktif_Vaziyet/data/NCR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaktif_Vaziyet-NCR-Son\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D78305F-1BFB-4B78-8EF4-D389B5508109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D111DA1-23F7-4D10-B4FF-A1E9EE7A3573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43CF3511-C791-4290-92B6-80AABA28408E}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>&lt;PROJECT NAME&gt;</t>
   </si>
@@ -108,15 +108,6 @@
   </si>
   <si>
     <t>Uygunsuzluk Açıklamaları</t>
-  </si>
-  <si>
-    <t>&lt;PHOTO 1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;PHOTO 2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;PHOTO 3&gt;</t>
   </si>
   <si>
     <t>Proje Kontrol Mühendisi/Mimarı</t>
@@ -525,6 +516,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,24 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948C8FA5-15D5-42CE-9059-A051C41AADE4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -986,20 +977,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="24" t="e" vm="2">
+      <c r="B2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="30" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1007,14 +998,14 @@
       <c r="A3" s="6" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18"/>
@@ -1023,7 +1014,7 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="18"/>
@@ -1032,7 +1023,7 @@
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="18"/>
@@ -1054,30 +1045,24 @@
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="280.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-    </row>
-    <row r="10" spans="1:3" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:3" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,14 +1074,14 @@
     </row>
     <row r="13" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
